--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E103F-361F-42B9-90E4-C9B51017068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2FE46-B418-434B-9BFF-332E1AFE04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>1667. Fix Names in a Table</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>String Methods</t>
+  </si>
+  <si>
+    <t>Use str.capitalize() and .sort_values()</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fix-names-in-a-table/solutions/3853461/2-steps-pandas-approach-mysql-with-comments-and-explanation/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata</t>
   </si>
 </sst>
 </file>
@@ -82,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,7 +139,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -140,14 +162,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3EE9083D-0D63-4750-A722-07E106EC8E7D}" name="Pattern"/>
     <tableColumn id="6" xr3:uid="{A7F8125B-A46D-45A5-A7F7-7B50CAA3589B}" name="Notes"/>
-    <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link"/>
+    <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,7 +441,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +471,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2FE46-B418-434B-9BFF-332E1AFE04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B863557B-F79C-4149-948D-80ADCA9B425A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/fix-names-in-a-table/solutions/3853461/2-steps-pandas-approach-mysql-with-comments-and-explanation/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata</t>
+  </si>
+  <si>
+    <t>1517. Find Users With Valid E-Mails</t>
+  </si>
+  <si>
+    <t>Use RegEx pattern with str.match(). When you use a dataframe twice, you filter the same dataframe based on the inner condition. E.g. users[users['mail'].str.match()]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-users-with-valid-e-mails/solutions/3853585/regex-explained-pandas-mysql-an-effortless-and-simple-approach-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -162,8 +171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +496,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E6A58974-E208-4652-B515-FBABCB8F36ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B863557B-F79C-4149-948D-80ADCA9B425A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBEE52C-FBFA-49B4-88FE-78B804207844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/find-users-with-valid-e-mails/solutions/3853585/regex-explained-pandas-mysql-an-effortless-and-simple-approach-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>1527. Patients With a Condition</t>
+  </si>
+  <si>
+    <t>Use str.contains() with RegEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/patients-with-a-condition/solutions/3853981/pandas-mysql-an-effortless-and-simple-approach-with-comments-and-explanation/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -171,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,15 +522,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{E6A58974-E208-4652-B515-FBABCB8F36ED}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{51910249-48FA-488C-B529-58615A616E55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBEE52C-FBFA-49B4-88FE-78B804207844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF7660-A7D3-474D-AA23-3B06DFC0E15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/patients-with-a-condition/solutions/3853981/pandas-mysql-an-effortless-and-simple-approach-with-comments-and-explanation/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>177. Nth Highest Salary</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/nth-highest-salary/solutions/3858402/very-simple-and-clean-pandas-with-comments/comments/2187013 </t>
+  </si>
+  <si>
+    <t>.drop_duplicates(), then sort_values(ascending=False), then if N exceeds num of unique salaries, or is 0 or less, return none, get the nth highest with .iloc[N-1]. Return the dynamic column with return pd.DataFrame({f'getNthHighestSalary({N})': [nth_highest]}).</t>
   </si>
 </sst>
 </file>
@@ -115,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,11 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -180,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -456,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,16 +561,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{E6A58974-E208-4652-B515-FBABCB8F36ED}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{51910249-48FA-488C-B529-58615A616E55}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{5522BCF2-05D7-4E8F-B786-A3D32E82D638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF7660-A7D3-474D-AA23-3B06DFC0E15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C386723-AA67-48CE-9E27-81B2C3603B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>.drop_duplicates(), then sort_values(ascending=False), then if N exceeds num of unique salaries, or is 0 or less, return none, get the nth highest with .iloc[N-1]. Return the dynamic column with return pd.DataFrame({f'getNthHighestSalary({N})': [nth_highest]}).</t>
+  </si>
+  <si>
+    <t>176. Second Highest Salary</t>
+  </si>
+  <si>
+    <t>drop duplicates, sort descending, check if len is greater than 1, if it is get the 2nd largest value with .nlargest(2).iloc[-1], else set it as None. If none, return return pd.DataFrame({'SecondHighestSalary': [None]}). If there is one, set res_df = pd.DataFrame({'SecondHighestSalary': [second_highest]}), then return res_df.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/second-highest-salary/solutions/3859199/pandas-an-effortless-and-simple-approach-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -202,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,17 +587,35 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{E6A58974-E208-4652-B515-FBABCB8F36ED}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{51910249-48FA-488C-B529-58615A616E55}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5522BCF2-05D7-4E8F-B786-A3D32E82D638}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{BD7EE6B7-AB89-4A00-AC4C-E27FAE1A9E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C386723-AA67-48CE-9E27-81B2C3603B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4BBF7-DE3F-4F3B-B953-4F4AE4DF769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/second-highest-salary/solutions/3859199/pandas-an-effortless-and-simple-approach-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>184. Department Highest Salary</t>
+  </si>
+  <si>
+    <t>Merge the dataframes, group by department, then find the employees with the highest salary within each group using max function and boolean indexing. Handle empty table scenarios. Use the lambda function to find the highest salary in each group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/department-highest-salary/solutions/3861495/pandas-very-simple-step-by-step-process-detailed/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -211,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -487,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +613,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -611,11 +637,12 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{51910249-48FA-488C-B529-58615A616E55}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5522BCF2-05D7-4E8F-B786-A3D32E82D638}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{BD7EE6B7-AB89-4A00-AC4C-E27FAE1A9E94}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{922ACF07-4AFC-4E2B-B631-E47F270705F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4BBF7-DE3F-4F3B-B953-4F4AE4DF769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDC26D-06A7-42F5-B234-1C9F15010889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/department-highest-salary/solutions/3861495/pandas-very-simple-step-by-step-process-detailed/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>178. Rank Scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rank-scores/solutions/3861595/pandas-simple-2-step-approach-additional-knowledge-at-the-end/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Use rank method with method='dense' and descending order to rank, then drop id column and sort values by score in descending order.</t>
   </si>
 </sst>
 </file>
@@ -220,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +639,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -638,11 +664,12 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{5522BCF2-05D7-4E8F-B786-A3D32E82D638}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{BD7EE6B7-AB89-4A00-AC4C-E27FAE1A9E94}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{922ACF07-4AFC-4E2B-B631-E47F270705F2}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{0BAE1420-81A4-47AF-8017-CA560DEA7D31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDC26D-06A7-42F5-B234-1C9F15010889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37D66B-9C75-4156-877E-49621A08D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>Use rank method with method='dense' and descending order to rank, then drop id column and sort values by score in descending order.</t>
+  </si>
+  <si>
+    <t>196. Delete Duplicate Emails</t>
+  </si>
+  <si>
+    <t>1795. Rearrange Products Table</t>
+  </si>
+  <si>
+    <t>Sort the rows based on id column to keep the lowest id one with sort_values(by='id',ascending=True,inplace=True), then delete with drop_duplicates(subset='email', jeep='first',inplace=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/delete-duplicate-emails/solutions/3863077/pandas-2-liner-very-simple-approach/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Use .melt() to unpivot a table, also use .dropna() to drop nulls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rearrange-products-table/solutions/3890418/pandas-a-very-short-and-simple-solution/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -229,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -505,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +674,40 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -665,11 +717,13 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{BD7EE6B7-AB89-4A00-AC4C-E27FAE1A9E94}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{922ACF07-4AFC-4E2B-B631-E47F270705F2}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{0BAE1420-81A4-47AF-8017-CA560DEA7D31}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{504C6C86-C743-48B8-AF96-756CDEFD7750}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{1DE058FD-6EE2-48BB-8080-9740A6022C94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37D66B-9C75-4156-877E-49621A08D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BE0BD-58B4-4DB1-AE8C-F5D89BD7C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/rearrange-products-table/solutions/3890418/pandas-a-very-short-and-simple-solution/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>1907. Count Salary Categories</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Filter each count using filer and shape. shape gives you the attributes of a dataframe which is a tuple. .shape[0] gets the num of rows in the filtered DF. Create the result dataframe, specify the columns and use the previously made filters for the rows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/count-salary-categories/solutions/3883595/pandas-easy-to-understand-approach/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>1741. Find Total Time Spent by Each Employee</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Calculate the time spent for each entry by subtraction, then group by emp_id and event_day, then sum the time_spent. reset_index() takes multi-level indices and converts back to regular columns. It is used after operations like group by.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-total-time-spent-by-each-employee/solutions/3899105/pandas-very-simple-2-step-approach/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -247,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -523,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +732,40 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -719,11 +777,13 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{0BAE1420-81A4-47AF-8017-CA560DEA7D31}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{504C6C86-C743-48B8-AF96-756CDEFD7750}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{1DE058FD-6EE2-48BB-8080-9740A6022C94}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{CBBF40E6-349B-4733-B981-9EA354FF3DCC}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{86D64994-B692-4DBD-9639-7F367D88AC14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BE0BD-58B4-4DB1-AE8C-F5D89BD7C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2EA29-4E61-428A-AFBD-2397B5BB4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Question</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/find-total-time-spent-by-each-employee/solutions/3899105/pandas-very-simple-2-step-approach/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>511. Game Play Analysis I</t>
+  </si>
+  <si>
+    <t>586. Customer Placing the Largest Number of Orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/game-play-analysis-i/solutions/3899132/pandas-very-simple-3-step-approach/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Sort df by player_id and event_date with sort_values(), groupby() with player_id then min() on event_date, then reset index. Then rename() the event_date column to first_login inplace, then return result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/customer-placing-the-largest-number-of-orders/solutions/3899213/pandas-2-liner-very-straightforward/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Group df by customer_number using groupby(), count num of orders for each customer with count() on grouped df and resetting index, fileter where order count is equal to the max order count, return res for customer with largest num orders.</t>
   </si>
 </sst>
 </file>
@@ -271,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -547,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +784,40 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -779,11 +831,13 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{1DE058FD-6EE2-48BB-8080-9740A6022C94}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{CBBF40E6-349B-4733-B981-9EA354FF3DCC}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{86D64994-B692-4DBD-9639-7F367D88AC14}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{30EA3D02-78DE-43C9-A60C-FE9B2F4CDA09}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{56B8DD11-585F-4D4D-A2E5-BF871EBCE5CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2EA29-4E61-428A-AFBD-2397B5BB4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B3F71-7036-4A62-A0B5-6738C0B451E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Question</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>Group df by customer_number using groupby(), count num of orders for each customer with count() on grouped df and resetting index, fileter where order count is equal to the max order count, return res for customer with largest num orders.</t>
+  </si>
+  <si>
+    <t>1484. Group Sold Products By The Date</t>
+  </si>
+  <si>
+    <t>groupby('sell_date), then filter ['product'].agg([]) num sold and n unique, products, lambda x: join sorted x.unique, then reset index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/group-sold-products-by-the-date/solutions/3863267/pandas-vs-sql-elegant-short-all-30-days-of-pandas-solutions/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>1693. Daily Leads and Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/daily-leads-and-partners/solutions/3946892/pandas-2-step-simple-code-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Group the daily sales by date_id and make_name using groupyby(), then .agg() to count distinct lead_id's and partner_ids', then reset index. Rename grouped columns for clarity, then return df. In pandas, you can pass in functions as parameters, like in this example, 'nunique' for .agg().</t>
   </si>
 </sst>
 </file>
@@ -289,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -565,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -818,6 +836,40 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{2D146B0B-5473-41BD-A2B8-DA0101F7FF0E}"/>
@@ -833,11 +885,13 @@
     <hyperlink ref="E12" r:id="rId11" xr:uid="{86D64994-B692-4DBD-9639-7F367D88AC14}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{30EA3D02-78DE-43C9-A60C-FE9B2F4CDA09}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{56B8DD11-585F-4D4D-A2E5-BF871EBCE5CF}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{30048AF4-EFC6-4BDA-9D04-E5CB53CBDD7B}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{3DD2791D-31C1-4E16-A081-B2BF0F388563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/Pandas30.xlsx
+++ b/python/patterns/Pandas30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B3F71-7036-4A62-A0B5-6738C0B451E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C577307B-EE12-4358-BD70-8631E5836DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>Group the daily sales by date_id and make_name using groupyby(), then .agg() to count distinct lead_id's and partner_ids', then reset index. Rename grouped columns for clarity, then return df. In pandas, you can pass in functions as parameters, like in this example, 'nunique' for .agg().</t>
+  </si>
+  <si>
+    <t>1050. Actors and Directors Who Cooperated At Least Three Times</t>
+  </si>
+  <si>
+    <t>Data Integration</t>
+  </si>
+  <si>
+    <t>Use groupyby(actor, director).agg(count=(director, count)), reset index, then return the stats df stats[stats['count']&gt;=3][['actor_id]', 'director_id']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/actors-and-directors-who-cooperated-at-least-three-times/solutions/3946925/pandas-2-step-simple-code-with-comments/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>607. Sales Person</t>
+  </si>
+  <si>
+    <t>merge the sales_person data with orders on sales id, how=left, and merge company on com_id left, filter data where name_y is not RED or null (.isna()), rename name_x column to name in result df, drop duplicates, then find the salespersons who had orders related to RED and name_x with .unique(), then filter out the salespersons with RED orders from the result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sales-person/solutions/3970324/pandas-easy-to-understand-properly-commented/?envType=study-plan-v2&amp;envId=30-days-of-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -307,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -583,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +889,40 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -887,11 +942,13 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{56B8DD11-585F-4D4D-A2E5-BF871EBCE5CF}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{30048AF4-EFC6-4BDA-9D04-E5CB53CBDD7B}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{3DD2791D-31C1-4E16-A081-B2BF0F388563}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{53538294-7C13-4295-A929-D13A7CF42CBA}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{E417321F-89D8-418B-A3ED-A3B4FCE4BD13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>